--- a/mathTransformed/HMPSTT_(2018-08-01)_58_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-08-01)_58_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -480,6 +485,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Govt. Adarsha Vidyalaya Hosapet</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -504,6 +514,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G P U College T B DamHospet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -528,6 +543,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S TalurSiruguppa</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -555,6 +575,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H P S SusheelnagarSandur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -576,6 +601,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Govt. Junior CollegeH B Halli</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -603,6 +633,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt. High School L N HalliplotHadagali</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -628,7 +663,8 @@
           <t>BHARGAVI T</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Govt. P U College for Girls Hosapete (High School Section) Ballary</t>
         </is>
@@ -657,6 +693,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S K BelagalluSiruguppa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -684,6 +725,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya H B Halli</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Ballary</t>
         </is>
       </c>
@@ -711,6 +757,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S KakubalHospet</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -735,6 +786,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Govt. High School Y Bulihal</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -762,6 +818,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S Upanayakana halliHadagali</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Ballary</t>
         </is>
       </c>
@@ -789,6 +850,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S GaddikeriH B Halli</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -813,6 +879,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Govt. Adarsha Vidyalaya Hosapet</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -837,6 +908,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Govt. Higher Primary School Chaganuru</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -861,6 +937,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H P S BenakalBallari East</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -888,6 +969,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H P S DanlethpuraSandur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -915,6 +1001,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S HirekolachiH Hadagali</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -942,6 +1033,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S KoluruBallary West</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -969,6 +1065,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G G H S SirigeriSiruppa</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -996,6 +1097,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H P S D MallapuraSandur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1023,6 +1129,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>K P G High School TambrahalliH B Halli</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1050,6 +1161,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Govt. High SchoolVattammanahalliH B Halli</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1077,6 +1193,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>K M H S BachigondanahalliH B Halli</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Ballary</t>
         </is>
       </c>
@@ -1104,6 +1225,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>H B Halli</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1131,6 +1257,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S (RMSA) ChilugoduH B Halli</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Ballary</t>
         </is>
       </c>
@@ -1158,6 +1289,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya (RMSA) Siruguppa</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Ballary</t>
         </is>
       </c>
@@ -1185,6 +1321,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S AlaburuH B Halli</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1212,6 +1353,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S M B AyyanahalliKudligi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1239,6 +1385,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Govt. High SchoolGadiganurHosapete</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Bellari</t>
         </is>
       </c>
@@ -1266,6 +1417,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S (RMSA) KariganurHosapete</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1293,6 +1449,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H P S C K HalliSandur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Ballary</t>
         </is>
       </c>
@@ -1317,6 +1478,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>S P M Govt. High School Hosapet</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1344,6 +1510,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Govt. High School B T GuddiKudligi</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1371,6 +1542,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>V K K G P U High School Section HirehadagaliHuvinahadagali</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1398,6 +1574,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Govt. High School (RMSA) VadduSandur</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1425,6 +1606,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Govt Girls High School KamalapuraHosapete</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1452,6 +1638,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G H P S SriramashettyhalliSandur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1479,6 +1670,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G H P S KatinakambaSandur</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Ballary</t>
         </is>
       </c>
@@ -1504,7 +1700,8 @@
           <t>RAJESHWARI K G</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Govt Girls High School Kamalapura</t>
         </is>
@@ -1522,6 +1719,11 @@
         </is>
       </c>
       <c r="F43" t="inlineStr">
+        <is>
+          <t>Hosapete</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>Bellary</t>
         </is>
@@ -1550,6 +1752,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt. P U College High School Section KamalapuraHosapete</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1577,6 +1784,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Govt. PU College for Girls (High Section) Hosapete</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1604,6 +1816,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>STK G H SchoolMahajanadahalliHadagali</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1631,6 +1848,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Govt. High School HateholliSiruguppa</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1658,6 +1880,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>Govt. Adarsha Vidyalaya Krishna NagarSandur</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1685,6 +1912,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G H S HirebannimattiHadagali</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Ballary</t>
         </is>
       </c>
@@ -1712,6 +1944,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H S NandihalliH Hadagali</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1739,6 +1976,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G H S BannikalluH B Halli</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1766,6 +2008,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>G H S BudanurH Hadagali</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1793,6 +2040,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Sri Verabadreshwara High School DupadahalliKudaligi</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1820,6 +2072,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>G H S A S GudiHospet</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1847,6 +2104,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>T M S G H S N B PuraHuvinahadagali</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1874,6 +2136,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>G H P S NandihalliSandur</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1901,6 +2168,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>Govt. Girls High School (EXMPL)Hosapete</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Ballary</t>
         </is>
       </c>
@@ -1928,6 +2200,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>G H S AnkasamudraH B Halli</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1955,6 +2232,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>Govt. P U College for Girls(High School Section) Hosapete</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Ballary</t>
         </is>
       </c>
@@ -1982,6 +2264,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>B H S AmmanakereKudligi</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Bellari</t>
         </is>
       </c>
@@ -2008,6 +2295,11 @@
         </is>
       </c>
       <c r="F61" t="inlineStr">
+        <is>
+          <t>Govt. High School Kallukambha</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>Bellary</t>
         </is>

--- a/mathTransformed/HMPSTT_(2018-08-01)_58_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-08-01)_58_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,7 +519,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,6 @@
           <t>BHARGAVI T</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>Govt. P U College for Girls Hosapete (High School Section) Ballary</t>
@@ -698,7 +697,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -762,7 +761,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -855,7 +854,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -974,7 +973,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1069,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1101,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1133,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1165,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1229,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1325,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1357,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1389,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bellari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1546,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1578,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1610,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1642,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1699,6 @@
           <t>RAJESHWARI K G</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>Govt Girls High School Kamalapura</t>
@@ -1725,7 +1723,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1755,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1851,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2043,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2075,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2107,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2139,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2267,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Bellari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2299,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2018-08-01)_58_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-08-01)_58_4.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Govt. P U College for Girls Hosapete (High School Section) Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Govt Girls High School Kamalapura</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
